--- a/reports/estadisticos/Comparativo Tipo Instrumento.xlsx
+++ b/reports/estadisticos/Comparativo Tipo Instrumento.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Boletín Cuadro 1.4" sheetId="1" r:id="rId1"/>
+    <sheet name="BOLETÍN CUADRO 1.4" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -13,9 +13,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>EMITIDO EL 23 DE enero DE 2023 a las 19:52:44</t>
-  </si>
-  <si>
     <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
   </si>
   <si>
@@ -59,6 +56,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">FUENTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+      </rPr>
+      <t xml:space="preserve">Informes Diarios de Valoraciones de Carteras de Inversión de Entidades Aseguradoras.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFF4F4F4"/>
       <name val="Arial"/>
       <family val="1"/>
@@ -174,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +198,7 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment indent="3" relativeIndent="3"/>
@@ -201,10 +214,13 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" indent="1" relativeIndent="2" shrinkToFit="1" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="4"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="4"/>
@@ -221,10 +237,16 @@
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="5"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment indent="1" relativeIndent="2"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,22 +257,12 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="360000" y="72000"/>
+    <xdr:ext cx="1809750" cy="819150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="logo" id="2" name="logo" title="logo"/>
+        <xdr:cNvPr descr="aps-logo.png" id="2" name="aps-logo.png" title="aps-logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -264,7 +276,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5876925" cy="2819400"/>
+          <a:ext cx="1809750" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -272,13 +284,13 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -291,24 +303,9 @@
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -317,7 +314,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -325,165 +322,178 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="B12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>23265949.27</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>7.985693822181411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12" t="n">
-        <v>23265949.27</v>
-      </c>
-      <c r="E11" s="12" t="n">
-        <v>7.985693822181411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="B13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>23170234.42</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>7.952841112091408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12" t="n">
-        <v>23170234.42</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>7.952841112091408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="B14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>24008154.43</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>8.240444792890596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12" t="n">
-        <v>24008154.43</v>
-      </c>
-      <c r="E13" s="12" t="n">
-        <v>8.240444792890596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="B15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>29842397.4</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>10.242962614190493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>29842397.4</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>10.242962614190493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="B16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>177465174.75</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>60.91230291990659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>177465174.75</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <v>60.91230291990659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+      <c r="B17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>13593460.44</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>4.665754738739504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>13593460.44</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>4.665754738739504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18" t="s">
+      <c r="B18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26" t="n">
+        <v>291345370.71</v>
+      </c>
+      <c r="E18" s="26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22" t="n">
-        <v>291345370.71</v>
-      </c>
-      <c r="E17" s="22" t="n">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A6:E6"/>
+  <mergeCells count="10">
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B10"/>
-    <mergeCell ref="C10:C10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:D10"/>
-    <mergeCell ref="E10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:B11"/>
+    <mergeCell ref="C11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:D11"/>
+    <mergeCell ref="E11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
